--- a/画面項目一覧-2.xlsx
+++ b/画面項目一覧-2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duypham/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B27A2-4C3A-F142-B278-38D258527104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598FFCD3-BFE4-E941-AABD-E13CC3A7E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B8D29782-1CEF-A643-AF06-915CA0F7A1C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B8D29782-1CEF-A643-AF06-915CA0F7A1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="画面項目一覧" sheetId="3" r:id="rId1"/>
     <sheet name="変更内容" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="159">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -586,6 +586,243 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>ukeru2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>FORMで送られた情報を受ける処理：denpyo_no、denpyo_no2、renban、取引先名、zipcode、住所１、住所２、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>namae_soto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、商品コード、伝票区分、数量</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ukeru4</t>
+  </si>
+  <si>
+    <t>ukeru3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ukeru5</t>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理：単位、金閣、発行日、担当名、担当、備考、締日、請求月、tekiyo、denpyo_new、za_torihikisaki_no、za_torihikisaki_mei</t>
+    <rPh sb="21" eb="23">
+      <t>キンカク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>タントウメイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理：joho_ymd、joho_torihikisaki、joho_kubun、joho_juchuno、joho_hakobi、processing、kensaku_no、kensaku_kubun、kari_zaiko1、kari_zaiko2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理：shohinmei、uri_tanka、kanmi、ig_kubun、shohin_kensu、bango、hinshu、hinshu_teisei</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sime</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>setuzoku</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji_meisai001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji_meisai002</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kosin</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>zaiko_kosin</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>zaiko_clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>denpyo_max</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>keka</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>keka_clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ymd</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>renban</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>uriage_zaiko</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>azukari_zaiko</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>azukari_shuka</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>torihikisaki</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shohin</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shain</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>session_clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shohin_kensaku</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>chusi</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hinshu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>表示処理(明細１)
+「②」表示する</t>
+  </si>
+  <si>
+    <t>表示処理(明細１)
+「③ 」表示する</t>
+  </si>
+  <si>
+    <t>hyoji_shori</t>
+  </si>
+  <si>
+    <t>表示処理(明細１)
+「④  」表示する</t>
+  </si>
+  <si>
+    <t>kensaku</t>
+  </si>
+  <si>
+    <t>更新処理</t>
+  </si>
+  <si>
+    <t>在庫更新処理(更新処理)</t>
+  </si>
+  <si>
+    <t>在庫更新処理(クリア処理)</t>
+  </si>
+  <si>
+    <t>伝票番号のカウンター</t>
+  </si>
+  <si>
+    <t>juchu_topに売上処理  update keka</t>
+  </si>
+  <si>
+    <t>gan gia tri keka bằng 0</t>
+  </si>
+  <si>
+    <t>クリア処理</t>
+  </si>
+  <si>
+    <t>連番処理</t>
+  </si>
+  <si>
+    <t>売上数の確保処理(区分1,4）</t>
+  </si>
+  <si>
+    <t>預り売上数の確保処理(区分2,3）</t>
+  </si>
+  <si>
+    <t>預出荷処理</t>
+  </si>
+  <si>
+    <t>取引先select処理</t>
+  </si>
+  <si>
+    <t>商品先select処理</t>
+  </si>
+  <si>
+    <t>SESSION関数クリア処理</t>
+  </si>
+  <si>
+    <t>SESSION→データ処理</t>
+  </si>
+  <si>
+    <t>商品検索処理</t>
+  </si>
+  <si>
+    <t>仮伝→売上処理</t>
+  </si>
+  <si>
+    <t>ファンション</t>
+  </si>
+  <si>
+    <t>伝票番号と伝票区分で伝票情報を検索する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+「①」表示する</t>
+  </si>
+  <si>
     <r>
       <t>FORMで送られた情報を受ける処理：取引先番号、受注番号、商品名、担当、単価、</t>
     </r>
@@ -631,259 +868,41 @@
       </rPr>
       <t>、check_item</t>
     </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ukeru2</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>FORMで送られた情報を受ける処理：denpyo_no、denpyo_no2、renban、取引先名、zipcode、住所１、住所２、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>namae_soto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、商品コード、伝票区分、数量</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ukeru4</t>
-  </si>
-  <si>
-    <t>ukeru3</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ukeru5</t>
-  </si>
-  <si>
-    <t>FORMで送られた情報を受ける処理：単位、金閣、発行日、担当名、担当、備考、締日、請求月、tekiyo、denpyo_new、za_torihikisaki_no、za_torihikisaki_mei</t>
-    <rPh sb="21" eb="23">
-      <t>キンカク</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>タントウメイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>FORMで送られた情報を受ける処理：joho_ymd、joho_torihikisaki、joho_kubun、joho_juchuno、joho_hakobi、processing、kensaku_no、kensaku_kubun、kari_zaiko1、kari_zaiko2</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>FORMで送られた情報を受ける処理：shohinmei、uri_tanka、kanmi、ig_kubun、shohin_kensu、bango、hinshu、hinshu_teisei</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>sime</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>setuzoku</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>hyoji</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>hyoji_meisai001</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>hyoji_meisai002</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>kosin</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>zaiko_kosin</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>zaiko_clear</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>denpyo_max</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>keka</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>keka_clear</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ymd</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>renban</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>uriage_zaiko</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>azukari_zaiko</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>azukari_shuka</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>torihikisaki</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>shohin</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>shain</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>session_clear</t>
-    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理</t>
+  </si>
+  <si>
+    <t>ファンションの機能</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">締め処理:  発行日と 取引先番号で取引先の 請求月, 締日を計算する
+</t>
+  </si>
+  <si>
+    <t>表示ボタン</t>
+  </si>
+  <si>
+    <t>検査ボタン</t>
+  </si>
+  <si>
+    <t>クリアボタン</t>
   </si>
   <si>
     <t>kensaku_hyoji</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>shohin_kensaku</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>chusi</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>hinshu</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>表示処理(明細１)
-「②」表示する</t>
-  </si>
-  <si>
-    <t>表示処理(明細１)
-「③ 」表示する</t>
-  </si>
-  <si>
-    <t>hyoji_shori</t>
-  </si>
-  <si>
-    <t>表示処理(明細１)
-「④  」表示する</t>
-  </si>
-  <si>
-    <t>kensaku</t>
-  </si>
-  <si>
-    <t>更新処理</t>
-  </si>
-  <si>
-    <t>在庫更新処理(更新処理)</t>
-  </si>
-  <si>
-    <t>在庫更新処理(クリア処理)</t>
-  </si>
-  <si>
-    <t>伝票番号のカウンター</t>
-  </si>
-  <si>
-    <t>juchu_topに売上処理  update keka</t>
-  </si>
-  <si>
-    <t>gan gia tri keka bằng 0</t>
-  </si>
-  <si>
-    <t>クリア処理</t>
-  </si>
-  <si>
-    <t>連番処理</t>
-  </si>
-  <si>
-    <t>売上数の確保処理(区分1,4）</t>
-  </si>
-  <si>
-    <t>預り売上数の確保処理(区分2,3）</t>
-  </si>
-  <si>
-    <t>預出荷処理</t>
-  </si>
-  <si>
-    <t>取引先select処理</t>
-  </si>
-  <si>
-    <t>商品先select処理</t>
-  </si>
-  <si>
-    <t>SESSION関数クリア処理</t>
-  </si>
-  <si>
-    <t>SESSION→データ処理</t>
-  </si>
-  <si>
-    <t>商品検索処理</t>
-  </si>
-  <si>
-    <t>仮伝→売上処理</t>
-  </si>
-  <si>
-    <t>ファンション</t>
-  </si>
-  <si>
-    <t>伝票番号と伝票区分で伝票情報を検索する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-「①」表示する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">締め処理:  発行日と 取引先番号で 取引先の 請求月, 締日を探す
-</t>
+  </si>
+  <si>
+    <t>更新ボタン</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,8 +982,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,6 +1023,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1164,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,7 +1239,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,8 +1257,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1221,11 +1296,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,55 +1314,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,6 +1355,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,24 +1383,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,6 +1396,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7540,23 +7594,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>615361</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>480189</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>212659</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 23">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B058336-352E-F84B-8E70-907B11F399CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1D7AB4-305F-6A42-8A29-13661BCC50AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7565,21 +7619,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16719485" y="0"/>
-          <a:ext cx="13219467" cy="8893174"/>
+          <a:off x="838200" y="177800"/>
+          <a:ext cx="11493500" cy="6680200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7590,23 +7638,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558799</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>79188</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309033</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 43">
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3529069-BC65-BD45-804F-AB77B14A34F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C6B2B3-8DA5-7041-9A90-0CB4740C8EF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7614,8 +7662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18084799" y="1371600"/>
-          <a:ext cx="12666133" cy="739588"/>
+          <a:off x="914400" y="1219200"/>
+          <a:ext cx="12043833" cy="587188"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7759,23 +7807,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>440267</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>434788</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 43">
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EF361D-2E24-2043-B2BB-A68365FAF3DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910EA8A-F41A-B948-B0E9-90A9EA97EBBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7783,8 +7831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16865600" y="2235200"/>
-          <a:ext cx="13970000" cy="739588"/>
+          <a:off x="901700" y="1803400"/>
+          <a:ext cx="12700000" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7928,23 +7976,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 43">
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997CFA1B-515A-7049-A292-116395320BE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAC68EF-23E6-AF40-A7A6-3FB8A28DDED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7952,8 +8000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16611599" y="3081866"/>
-          <a:ext cx="14393333" cy="4233334"/>
+          <a:off x="914400" y="2438400"/>
+          <a:ext cx="12039600" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8097,23 +8145,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>485588</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形: 角を丸くする 43">
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2558009C-0033-5547-97D7-FB206135A02B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9688E31F-A3F2-7F4A-9D3C-885C6904EA7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8121,8 +8169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19727334" y="3302000"/>
-          <a:ext cx="3674533" cy="739588"/>
+          <a:off x="3606800" y="2540000"/>
+          <a:ext cx="3479799" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8580,7 +8628,7 @@
   <dimension ref="A1:AC78"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
@@ -8599,102 +8647,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="34" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="34" t="s">
+      <c r="W1" s="15"/>
+      <c r="X1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="34" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="33"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22">
         <v>45278</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="32" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
     </row>
     <row r="4" spans="1:29" ht="33">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="11" spans="1:29">
       <c r="O11" s="1" t="s">
@@ -8702,14 +8750,14 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="33">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:27">
       <c r="B37" s="1" t="s">
@@ -8717,28 +8765,28 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="33">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="41" spans="1:27">
       <c r="B41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="7" t="s">
         <v>12</v>
       </c>
@@ -8748,41 +8796,41 @@
       <c r="L41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="28" t="s">
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="20" t="s">
+      <c r="Q41" s="23"/>
+      <c r="R41" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
     </row>
     <row r="42" spans="1:27">
       <c r="B42" s="5">
         <v>1</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="8" t="s">
         <v>34</v>
       </c>
@@ -8792,77 +8840,77 @@
       <c r="L42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="18"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="16" t="s">
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16" t="s">
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="1:27">
       <c r="B43" s="5">
         <v>2</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="18"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16" t="s">
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
     </row>
     <row r="44" spans="1:27">
       <c r="B44" s="5">
         <v>3</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="8" t="s">
         <v>34</v>
       </c>
@@ -8872,77 +8920,77 @@
       <c r="L44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="16" t="s">
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16" t="s">
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
     </row>
     <row r="45" spans="1:27">
       <c r="B45" s="5">
         <v>4</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="17" t="s">
+      <c r="M45" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16" t="s">
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
     </row>
     <row r="46" spans="1:27">
       <c r="B46" s="5">
         <v>5</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="5" t="s">
         <v>35</v>
       </c>
@@ -8950,75 +8998,75 @@
       <c r="L46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16" t="s">
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
     </row>
     <row r="47" spans="1:27" ht="26" customHeight="1">
       <c r="B47" s="5">
         <v>6</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="17" t="s">
+      <c r="M47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="27" t="s">
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
     </row>
     <row r="48" spans="1:27">
       <c r="B48" s="5">
         <v>7</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="5" t="s">
         <v>34</v>
       </c>
@@ -9026,153 +9074,153 @@
       <c r="L48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="M48" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="16" t="s">
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16" t="s">
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
     </row>
     <row r="49" spans="1:27">
       <c r="B49" s="5">
         <v>8</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16" t="s">
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
     </row>
     <row r="50" spans="1:27">
       <c r="B50" s="5">
         <v>9</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16" t="s">
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
     </row>
     <row r="51" spans="1:27" s="11" customFormat="1" ht="205" customHeight="1">
       <c r="B51" s="9">
         <v>10</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="23" t="s">
+      <c r="M51" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="N51" s="24"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="26" t="s">
+      <c r="N51" s="34"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
     </row>
     <row r="52" spans="1:27" ht="54">
       <c r="B52" s="6">
         <v>11</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="5" t="s">
         <v>35</v>
       </c>
@@ -9180,111 +9228,111 @@
       <c r="L52" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M52" s="23" t="s">
+      <c r="M52" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N52" s="24"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="22" t="s">
+      <c r="N52" s="34"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
     </row>
     <row r="53" spans="1:27">
       <c r="B53" s="5">
         <v>12</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="17" t="s">
+      <c r="M53" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="18"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16" t="s">
+      <c r="N53" s="29"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
     </row>
     <row r="54" spans="1:27">
       <c r="B54" s="5">
         <v>13</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="17" t="s">
+      <c r="M54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16" t="s">
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
     </row>
     <row r="55" spans="1:27">
       <c r="B55" s="5">
         <v>14</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="5" t="s">
         <v>15</v>
       </c>
@@ -9292,75 +9340,75 @@
       <c r="L55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M55" s="17" t="s">
+      <c r="M55" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16" t="s">
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="5">
         <v>15</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="17" t="s">
+      <c r="M56" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16" t="s">
+      <c r="N56" s="29"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
     </row>
     <row r="57" spans="1:27">
       <c r="B57" s="5">
         <v>16</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
       <c r="J57" s="5" t="s">
         <v>15</v>
       </c>
@@ -9368,605 +9416,613 @@
       <c r="L57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="M57" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N57" s="18"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16" t="s">
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
     </row>
     <row r="59" spans="1:27" ht="33">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:27" ht="26" customHeight="1">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
     </row>
     <row r="65" spans="2:27">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
     </row>
     <row r="66" spans="2:27" ht="26" customHeight="1">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
     </row>
     <row r="67" spans="2:27">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
     </row>
     <row r="68" spans="2:27">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="15"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
     </row>
     <row r="69" spans="2:27">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
     </row>
     <row r="70" spans="2:27">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="15"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
     </row>
     <row r="71" spans="2:27">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="39"/>
     </row>
     <row r="72" spans="2:27">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
+      <c r="Z72" s="39"/>
+      <c r="AA72" s="39"/>
     </row>
     <row r="73" spans="2:27">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
+      <c r="Z73" s="39"/>
+      <c r="AA73" s="39"/>
     </row>
     <row r="74" spans="2:27">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
+      <c r="Z74" s="39"/>
+      <c r="AA74" s="39"/>
     </row>
     <row r="75" spans="2:27">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
     </row>
     <row r="76" spans="2:27">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
-      <c r="X76" s="15"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
-      <c r="AA76" s="15"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
     </row>
     <row r="77" spans="2:27">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
+      <c r="Z77" s="39"/>
+      <c r="AA77" s="39"/>
     </row>
     <row r="78" spans="2:27">
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+      <c r="AA78" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R46:AA46"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="B60:AA78"/>
+    <mergeCell ref="R55:AA55"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:AA56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:AA57"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R41:AA41"/>
+    <mergeCell ref="R42:AA42"/>
+    <mergeCell ref="R43:AA43"/>
+    <mergeCell ref="R44:AA44"/>
+    <mergeCell ref="R45:AA45"/>
+    <mergeCell ref="R53:AA53"/>
+    <mergeCell ref="R54:AA54"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R51:AA51"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R52:AA52"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:Q50"/>
     <mergeCell ref="R49:AA49"/>
     <mergeCell ref="R50:AA50"/>
     <mergeCell ref="R47:AA47"/>
@@ -9983,47 +10039,39 @@
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="M48:O48"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R53:AA53"/>
-    <mergeCell ref="R54:AA54"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R51:AA51"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R52:AA52"/>
-    <mergeCell ref="R41:AA41"/>
-    <mergeCell ref="R42:AA42"/>
-    <mergeCell ref="R43:AA43"/>
-    <mergeCell ref="R44:AA44"/>
-    <mergeCell ref="R45:AA45"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="B60:AA78"/>
-    <mergeCell ref="R55:AA55"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:AA56"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:AA57"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R46:AA46"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10036,99 +10084,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC151D-DB4B-40CE-8F80-DC6DDFCDB830}">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AG42" sqref="AG42"/>
+    <sheetView topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:29" ht="33">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="34" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="34" t="s">
+      <c r="W1" s="15"/>
+      <c r="X1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="34" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="33"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" ht="33">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22">
         <v>45281</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="32" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
     </row>
     <row r="3" spans="1:29" ht="26">
       <c r="A3" s="1"/>
@@ -10162,14 +10210,14 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="33">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11155,14 +11203,14 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" ht="33">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -11220,649 +11268,700 @@
     </row>
     <row r="38" spans="1:29" ht="26">
       <c r="A38" s="1"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="41" t="s">
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="43"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="53"/>
     </row>
     <row r="39" spans="1:29" ht="63.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="51">
+      <c r="B39" s="56">
         <v>1</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="49" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="55" t="s">
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="57"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="42"/>
     </row>
     <row r="40" spans="1:29" ht="26">
       <c r="A40" s="1"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="49" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="58" t="s">
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="60"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:29" ht="26">
       <c r="A41" s="1"/>
-      <c r="B41" s="44">
+      <c r="B41" s="46">
         <v>2</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="48" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="57"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="42"/>
     </row>
     <row r="42" spans="1:29" ht="98" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="55" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="57"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="42"/>
     </row>
     <row r="43" spans="1:29" ht="32.5" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="44">
+      <c r="B43" s="46">
         <v>3</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="48" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="55" t="s">
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="57"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="42"/>
     </row>
     <row r="44" spans="1:29" ht="32.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="55" t="s">
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="57"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="42"/>
     </row>
     <row r="45" spans="1:29" ht="32.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="44">
+      <c r="B45" s="46">
         <v>4</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="48" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="55" t="s">
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="57"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="42"/>
     </row>
     <row r="46" spans="1:29" ht="32.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="55" t="s">
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="57"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="42"/>
     </row>
     <row r="47" spans="1:29" ht="26">
       <c r="A47" s="1"/>
-      <c r="B47" s="44">
+      <c r="B47" s="46">
         <v>5</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="48" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="55" t="s">
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="57"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="42"/>
     </row>
     <row r="48" spans="1:29" ht="113" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48" t="s">
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="55" t="s">
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="57"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="42"/>
     </row>
     <row r="49" spans="1:27" ht="32.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="44">
+      <c r="B49" s="46">
         <v>6</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="48" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="55" t="s">
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="57"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="42"/>
     </row>
     <row r="50" spans="1:27" ht="111.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48" t="s">
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="55" t="s">
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="57"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="42"/>
     </row>
     <row r="51" spans="1:27" ht="26">
       <c r="A51" s="1"/>
-      <c r="B51" s="44">
+      <c r="B51" s="46">
         <v>7</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="48" t="s">
+      <c r="C51" s="47"/>
+      <c r="D51" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="55" t="s">
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="57"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="42"/>
     </row>
     <row r="52" spans="1:27" ht="116" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48" t="s">
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="55" t="s">
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="57"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="42"/>
     </row>
     <row r="53" spans="1:27" ht="32.5" customHeight="1">
-      <c r="B53" s="44">
+      <c r="B53" s="46">
         <v>8</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="48" t="s">
+      <c r="C53" s="47"/>
+      <c r="D53" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="55" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="57"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="42"/>
     </row>
     <row r="54" spans="1:27" ht="147.5" customHeight="1">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48" t="s">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="55" t="s">
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="57"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="42"/>
     </row>
     <row r="55" spans="1:27" ht="32.5" customHeight="1">
-      <c r="B55" s="44">
+      <c r="B55" s="46">
         <v>9</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="48" t="s">
+      <c r="C55" s="47"/>
+      <c r="D55" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="55" t="s">
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="57"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="42"/>
     </row>
     <row r="56" spans="1:27" ht="189.5" customHeight="1">
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="48" t="s">
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="55" t="s">
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="57"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H55:AA55"/>
+    <mergeCell ref="H56:AA56"/>
     <mergeCell ref="H54:AA54"/>
     <mergeCell ref="H39:AA39"/>
     <mergeCell ref="H40:AA40"/>
@@ -11879,57 +11978,6 @@
     <mergeCell ref="H51:AA51"/>
     <mergeCell ref="H52:AA52"/>
     <mergeCell ref="H53:AA53"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H55:AA55"/>
-    <mergeCell ref="H56:AA56"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="H38:AA38"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11939,526 +11987,907 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994B72A9-F063-4FCF-B012-CE74CA9CDA57}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493B772F-DFFE-C640-BC5B-7A84EF9F7D1E}">
+  <dimension ref="A36:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="66"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="33" style="66" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="36" spans="1:15" s="66" customFormat="1" ht="26">
+      <c r="B36" s="65"/>
+      <c r="C36" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="M36" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="N36" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="O36" s="68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="40" customHeight="1">
+      <c r="A37"/>
+      <c r="B37" s="67">
+        <v>1</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+    </row>
+    <row r="38" spans="1:15" ht="40" customHeight="1">
+      <c r="A38"/>
+      <c r="B38" s="67">
+        <v>2</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+    </row>
+    <row r="39" spans="1:15" ht="40" customHeight="1">
+      <c r="A39"/>
+      <c r="B39" s="67">
+        <v>3</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+    </row>
+    <row r="40" spans="1:15" ht="40" customHeight="1">
+      <c r="A40"/>
+      <c r="B40" s="67">
+        <v>4</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+    </row>
+    <row r="41" spans="1:15" ht="40" customHeight="1">
+      <c r="A41"/>
+      <c r="B41" s="67">
+        <v>5</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+    </row>
+    <row r="42" spans="1:15" ht="40" customHeight="1">
+      <c r="A42"/>
+      <c r="B42" s="67">
+        <v>6</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+    </row>
+    <row r="43" spans="1:15" ht="40" customHeight="1">
+      <c r="A43"/>
+      <c r="B43" s="67">
+        <v>7</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+    </row>
+    <row r="44" spans="1:15" ht="40" customHeight="1">
+      <c r="A44"/>
+      <c r="B44" s="67">
+        <v>8</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-    </row>
-    <row r="2" spans="1:8" ht="40" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:8" ht="40" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-    </row>
-    <row r="4" spans="1:8" ht="40" customHeight="1">
-      <c r="A4" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-    </row>
-    <row r="5" spans="1:8" ht="40" customHeight="1">
-      <c r="A5" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-    </row>
-    <row r="6" spans="1:8" ht="40" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="1:8" ht="40" customHeight="1">
-      <c r="A7" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40" customHeight="1">
-      <c r="A8" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="1:8" ht="40" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L44" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M44" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+    </row>
+    <row r="45" spans="1:15" ht="40" customHeight="1">
+      <c r="A45"/>
+      <c r="B45" s="67">
+        <v>9</v>
+      </c>
+      <c r="C45" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="40" customHeight="1">
-      <c r="A10" s="61" t="s">
+      <c r="D45" s="60"/>
+      <c r="E45" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L45" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M45" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+    </row>
+    <row r="46" spans="1:15" ht="40" customHeight="1">
+      <c r="A46"/>
+      <c r="B46" s="67">
+        <v>10</v>
+      </c>
+      <c r="C46" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+    </row>
+    <row r="47" spans="1:15" ht="40" customHeight="1">
+      <c r="A47"/>
+      <c r="B47" s="67">
+        <v>11</v>
+      </c>
+      <c r="C47" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:8" ht="40" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+    </row>
+    <row r="48" spans="1:15" ht="40" customHeight="1">
+      <c r="A48"/>
+      <c r="B48" s="67">
+        <v>12</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+    </row>
+    <row r="49" spans="1:15" ht="40" customHeight="1">
+      <c r="A49"/>
+      <c r="B49" s="67">
+        <v>13</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-    </row>
-    <row r="13" spans="1:8" ht="40" customHeight="1">
-      <c r="A13" s="61" t="s">
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+    </row>
+    <row r="50" spans="1:15" ht="40" customHeight="1">
+      <c r="A50"/>
+      <c r="B50" s="67">
+        <v>14</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-    </row>
-    <row r="14" spans="1:8" ht="40" customHeight="1">
-      <c r="A14" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62" t="s">
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+    </row>
+    <row r="51" spans="1:15" ht="40" customHeight="1">
+      <c r="A51"/>
+      <c r="B51" s="67">
+        <v>15</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-    </row>
-    <row r="15" spans="1:8" ht="40" customHeight="1">
-      <c r="A15" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62" t="s">
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+    </row>
+    <row r="52" spans="1:15" ht="40" customHeight="1">
+      <c r="A52"/>
+      <c r="B52" s="67">
+        <v>16</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="1:8" ht="40" customHeight="1">
-      <c r="A16" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62" t="s">
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+    </row>
+    <row r="53" spans="1:15" ht="40" customHeight="1">
+      <c r="A53"/>
+      <c r="B53" s="67">
+        <v>17</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-    </row>
-    <row r="17" spans="1:7" ht="40" customHeight="1">
-      <c r="A17" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62" t="s">
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+    </row>
+    <row r="54" spans="1:15" ht="40" customHeight="1">
+      <c r="A54"/>
+      <c r="B54" s="67">
+        <v>18</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="E54" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-    </row>
-    <row r="18" spans="1:7" ht="40" customHeight="1">
-      <c r="A18" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62" t="s">
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+    </row>
+    <row r="55" spans="1:15" ht="40" customHeight="1">
+      <c r="A55"/>
+      <c r="B55" s="67">
+        <v>19</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+    </row>
+    <row r="56" spans="1:15" ht="40" customHeight="1">
+      <c r="A56"/>
+      <c r="B56" s="67">
+        <v>20</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-    </row>
-    <row r="19" spans="1:7" ht="40" customHeight="1">
-      <c r="A19" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62" t="s">
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+    </row>
+    <row r="57" spans="1:15" ht="40" customHeight="1">
+      <c r="A57"/>
+      <c r="B57" s="67">
+        <v>21</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-    </row>
-    <row r="20" spans="1:7" ht="40" customHeight="1">
-      <c r="A20" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="1:7" ht="40" customHeight="1">
-      <c r="A21" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62" t="s">
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+    </row>
+    <row r="58" spans="1:15" ht="40" customHeight="1">
+      <c r="A58"/>
+      <c r="B58" s="67">
+        <v>22</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-    </row>
-    <row r="22" spans="1:7" ht="40" customHeight="1">
-      <c r="A22" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62" t="s">
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+    </row>
+    <row r="59" spans="1:15" ht="40" customHeight="1">
+      <c r="A59"/>
+      <c r="B59" s="67">
+        <v>23</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-    </row>
-    <row r="23" spans="1:7" ht="40" customHeight="1">
-      <c r="A23" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62" t="s">
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+    </row>
+    <row r="60" spans="1:15" ht="40" customHeight="1">
+      <c r="A60"/>
+      <c r="B60" s="67">
+        <v>24</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-    </row>
-    <row r="24" spans="1:7" ht="40" customHeight="1">
-      <c r="A24" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62" t="s">
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+    </row>
+    <row r="61" spans="1:15" ht="40" customHeight="1">
+      <c r="A61"/>
+      <c r="B61" s="67">
+        <v>25</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-    </row>
-    <row r="25" spans="1:7" ht="40" customHeight="1">
-      <c r="A25" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62" t="s">
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+    </row>
+    <row r="62" spans="1:15" ht="40" customHeight="1">
+      <c r="A62"/>
+      <c r="B62" s="67">
+        <v>26</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-    </row>
-    <row r="26" spans="1:7" ht="40" customHeight="1">
-      <c r="A26" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62" t="s">
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+    </row>
+    <row r="63" spans="1:15" ht="40" customHeight="1">
+      <c r="A63"/>
+      <c r="B63" s="67">
+        <v>27</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+    </row>
+    <row r="64" spans="1:15" ht="40" customHeight="1">
+      <c r="A64"/>
+      <c r="B64" s="67">
+        <v>28</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="60"/>
+      <c r="E64" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-    </row>
-    <row r="27" spans="1:7" ht="40" customHeight="1">
-      <c r="A27" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62" t="s">
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
+    </row>
+    <row r="65" spans="1:15" ht="40" customHeight="1">
+      <c r="A65"/>
+      <c r="B65" s="67">
+        <v>29</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" ht="40" customHeight="1">
-      <c r="A28" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-    </row>
-    <row r="29" spans="1:7" ht="40" customHeight="1">
-      <c r="A29" s="61" t="s">
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L65" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M65" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+    </row>
+    <row r="66" spans="1:15" ht="40" customHeight="1">
+      <c r="A66"/>
+      <c r="B66" s="67">
+        <v>30</v>
+      </c>
+      <c r="C66" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-    </row>
-    <row r="30" spans="1:7" ht="40" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+    </row>
+    <row r="67" spans="1:15" ht="40" customHeight="1">
+      <c r="A67"/>
+      <c r="B67" s="67">
+        <v>31</v>
+      </c>
+      <c r="C67" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-    </row>
-    <row r="31" spans="1:7" ht="40" customHeight="1">
-      <c r="A31" s="61" t="s">
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+    </row>
+    <row r="68" spans="1:15" ht="40" customHeight="1">
+      <c r="A68"/>
+      <c r="B68" s="67">
+        <v>32</v>
+      </c>
+      <c r="C68" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-    </row>
-    <row r="32" spans="1:7" ht="40" customHeight="1">
-      <c r="A32" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-    </row>
-    <row r="33" spans="1:7" ht="40" customHeight="1">
-      <c r="A33" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:I38"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>